--- a/biology/Botanique/John_Bretland_Farmer/John_Bretland_Farmer.xlsx
+++ b/biology/Botanique/John_Bretland_Farmer/John_Bretland_Farmer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Bretland Farmer (5 avril 1865 - 26 janvier 1944) est un botaniste britannique. Il croit que les chromomères et non les chromosomes sont l'unité de l'hérédité. Farmer et JES Moore introduisent le terme méiose en 1905 [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Bretland Farmer (5 avril 1865 - 26 janvier 1944) est un botaniste britannique. Il croit que les chromomères et non les chromosomes sont l'unité de l'hérédité. Farmer et JES Moore introduisent le terme méiose en 1905 .
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est né à Atherstone dans le Warwickshire, fils de John Henry Farmer et de sa femme Elizabeth Corbett Bretland. Il fréquente la Queen Elizabeth Grammar School à Atherstone [2].
-Il obtient une place au Magdalen College d'Oxford et obtient une maîtrise en 1887. Au cours de cette période, il est fortement influencé par le professeur Isaac Bayley Balfour [3]. Il est nommé membre du Magdalen College 1889–1897, démonstrateur de botanique en 1887–1892 et professeur adjoint de biologie en 1892–1895 à Oxford, puis devient professeur de botanique à l'Imperial College de Londres. Il reçoit un doctorat en sciences (D.Sc.) de l'Université d'Oxford en mars 1902.
-Il est élu membre de la Royal Society en 1900[4] reçoit sa médaille royale en 1919 et est son vice-président de 1919 à 1921. Il est également président de l'Alpine Climbers Club 1910–12.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est né à Atherstone dans le Warwickshire, fils de John Henry Farmer et de sa femme Elizabeth Corbett Bretland. Il fréquente la Queen Elizabeth Grammar School à Atherstone .
+Il obtient une place au Magdalen College d'Oxford et obtient une maîtrise en 1887. Au cours de cette période, il est fortement influencé par le professeur Isaac Bayley Balfour . Il est nommé membre du Magdalen College 1889–1897, démonstrateur de botanique en 1887–1892 et professeur adjoint de biologie en 1892–1895 à Oxford, puis devient professeur de botanique à l'Imperial College de Londres. Il reçoit un doctorat en sciences (D.Sc.) de l'Université d'Oxford en mars 1902.
+Il est élu membre de la Royal Society en 1900 reçoit sa médaille royale en 1919 et est son vice-président de 1919 à 1921. Il est également président de l'Alpine Climbers Club 1910–12.
 Il est fait chevalier en 1926 pour ses services à la botanique et à l'enseignement scientifique.
-Il meurt à Exmouth sur la côte sud de l'Angleterre le 26 janvier 1944 [2].
+Il meurt à Exmouth sur la côte sud de l'Angleterre le 26 janvier 1944 .
 En 1892, il épouse Edith May Gertrude Pritchard.
 </t>
         </is>
@@ -547,12 +561,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Farmer est rédacteur en chef des Annals of Botany 1906-1922 et écrit particulièrement sur la cytologie [5]. Il est également rédacteur en chef de la revue publiée par John Murray, Science Progress in the Twentieth Century de 1909 à 1912 et Gardeners' Chronicle 1904 à 1906. Ses livres comprennent:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Farmer est rédacteur en chef des Annals of Botany 1906-1922 et écrit particulièrement sur la cytologie . Il est également rédacteur en chef de la revue publiée par John Murray, Science Progress in the Twentieth Century de 1909 à 1912 et Gardeners' Chronicle 1904 à 1906. Ses livres comprennent:
 Plantes à fleurs (1899)
 Botanique élémentaire (1904)
-The Book of Nature Study (6 volumes) (à partir de 1908) [6]
+The Book of Nature Study (6 volumes) (à partir de 1908) 
 Traduction de Die Mutationstheorie (1911) co-écrit avec Arthur Dukinfield Darbishire
 La vie végétale (1913)
 Nature et développement des plantes (1918)</t>
